--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Tnfsf13b-Tnfrsf13b.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Tnfsf13b-Tnfrsf13b.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,10 +76,19 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>FAPs</t>
   </si>
   <si>
     <t>Inflammatory-Mac</t>
+  </si>
+  <si>
+    <t>MuSCs</t>
+  </si>
+  <si>
+    <t>Neutrophils</t>
   </si>
   <si>
     <t>Resolving-Mac</t>
@@ -446,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T7"/>
+  <dimension ref="A1:T25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -519,61 +528,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>2.651738666666667</v>
+        <v>0.231268</v>
       </c>
       <c r="H2">
-        <v>7.955216</v>
+        <v>0.462536</v>
       </c>
       <c r="I2">
-        <v>0.5604432756981275</v>
+        <v>0.02618833558705347</v>
       </c>
       <c r="J2">
-        <v>0.5604432756981274</v>
+        <v>0.01770228520436836</v>
       </c>
       <c r="K2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="M2">
-        <v>11.23020933333333</v>
+        <v>0.288167</v>
       </c>
       <c r="N2">
-        <v>33.690628</v>
+        <v>0.576334</v>
       </c>
       <c r="O2">
-        <v>0.4111393124289954</v>
+        <v>0.01041095464791083</v>
       </c>
       <c r="P2">
-        <v>0.4111393124289954</v>
+        <v>0.00696480652690157</v>
       </c>
       <c r="Q2">
-        <v>29.77958032396089</v>
+        <v>0.066643805756</v>
       </c>
       <c r="R2">
-        <v>268.016222915648</v>
+        <v>0.266575223024</v>
       </c>
       <c r="S2">
-        <v>0.230420263025982</v>
+        <v>0.000272645574101083</v>
       </c>
       <c r="T2">
-        <v>0.230420263025982</v>
+        <v>0.0001232929915324578</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -581,31 +590,31 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D3" t="s">
         <v>22</v>
       </c>
       <c r="E3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>2.651738666666667</v>
+        <v>0.231268</v>
       </c>
       <c r="H3">
-        <v>7.955216</v>
+        <v>0.462536</v>
       </c>
       <c r="I3">
-        <v>0.5604432756981275</v>
+        <v>0.02618833558705347</v>
       </c>
       <c r="J3">
-        <v>0.5604432756981274</v>
+        <v>0.01770228520436836</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -614,60 +623,60 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>16.08464233333333</v>
+        <v>12.49901533333333</v>
       </c>
       <c r="N3">
-        <v>48.253927</v>
+        <v>37.497046</v>
       </c>
       <c r="O3">
-        <v>0.5888606875710045</v>
+        <v>0.4515669100864271</v>
       </c>
       <c r="P3">
-        <v>0.5888606875710045</v>
+        <v>0.4531394481677785</v>
       </c>
       <c r="Q3">
-        <v>42.65226801480356</v>
+        <v>2.890622278109333</v>
       </c>
       <c r="R3">
-        <v>383.870412133232</v>
+        <v>17.343733668656</v>
       </c>
       <c r="S3">
-        <v>0.3300230126721454</v>
+        <v>0.01182578578135215</v>
       </c>
       <c r="T3">
-        <v>0.3300230126721453</v>
+        <v>0.008021603748816108</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C4" t="s">
+        <v>27</v>
+      </c>
+      <c r="D4" t="s">
         <v>24</v>
       </c>
-      <c r="D4" t="s">
-        <v>21</v>
-      </c>
       <c r="E4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.5155733333333333</v>
+        <v>0.231268</v>
       </c>
       <c r="H4">
-        <v>1.54672</v>
+        <v>0.462536</v>
       </c>
       <c r="I4">
-        <v>0.10896609512398</v>
+        <v>0.02618833558705347</v>
       </c>
       <c r="J4">
-        <v>0.10896609512398</v>
+        <v>0.01770228520436836</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -676,60 +685,60 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>11.23020933333333</v>
+        <v>3.382917666666666</v>
       </c>
       <c r="N4">
-        <v>33.690628</v>
+        <v>10.148753</v>
       </c>
       <c r="O4">
-        <v>0.4111393124289954</v>
+        <v>0.1222187218011882</v>
       </c>
       <c r="P4">
-        <v>0.4111393124289954</v>
+        <v>0.1226443366768434</v>
       </c>
       <c r="Q4">
-        <v>5.789996460017777</v>
+        <v>0.7823606029346666</v>
       </c>
       <c r="R4">
-        <v>52.10996814016</v>
+        <v>4.694163617608</v>
       </c>
       <c r="S4">
-        <v>0.04480024542734565</v>
+        <v>0.003200704901550244</v>
       </c>
       <c r="T4">
-        <v>0.04480024542734564</v>
+        <v>0.002171085026554057</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C5" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D5" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="E5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.5155733333333333</v>
+        <v>0.231268</v>
       </c>
       <c r="H5">
-        <v>1.54672</v>
+        <v>0.462536</v>
       </c>
       <c r="I5">
-        <v>0.10896609512398</v>
+        <v>0.02618833558705347</v>
       </c>
       <c r="J5">
-        <v>0.10896609512398</v>
+        <v>0.01770228520436836</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,42 +747,42 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>16.08464233333333</v>
+        <v>11.50911</v>
       </c>
       <c r="N5">
-        <v>48.253927</v>
+        <v>34.52733</v>
       </c>
       <c r="O5">
-        <v>0.5888606875710045</v>
+        <v>0.4158034134644739</v>
       </c>
       <c r="P5">
-        <v>0.5888606875710045</v>
+        <v>0.4172514086284765</v>
       </c>
       <c r="Q5">
-        <v>8.292812663271112</v>
+        <v>2.66168885148</v>
       </c>
       <c r="R5">
-        <v>74.63531396944001</v>
+        <v>15.97013310888</v>
       </c>
       <c r="S5">
-        <v>0.06416584969663434</v>
+        <v>0.01088919933004999</v>
       </c>
       <c r="T5">
-        <v>0.06416584969663434</v>
+        <v>0.007386303437465736</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C6" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E6">
         <v>3</v>
@@ -782,57 +791,57 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>1.564190333333333</v>
+        <v>2.651738666666667</v>
       </c>
       <c r="H6">
-        <v>4.692571</v>
+        <v>7.955216</v>
       </c>
       <c r="I6">
-        <v>0.3305906291778926</v>
+        <v>0.3002776955386495</v>
       </c>
       <c r="J6">
-        <v>0.3305906291778925</v>
+        <v>0.3044638741511027</v>
       </c>
       <c r="K6">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L6">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="M6">
-        <v>11.23020933333333</v>
+        <v>0.288167</v>
       </c>
       <c r="N6">
-        <v>33.690628</v>
+        <v>0.576334</v>
       </c>
       <c r="O6">
-        <v>0.4111393124289954</v>
+        <v>0.01041095464791083</v>
       </c>
       <c r="P6">
-        <v>0.4111393124289954</v>
+        <v>0.00696480652690157</v>
       </c>
       <c r="Q6">
-        <v>17.56618488050978</v>
+        <v>0.7641435763573333</v>
       </c>
       <c r="R6">
-        <v>158.095663924588</v>
+        <v>4.584861458144</v>
       </c>
       <c r="S6">
-        <v>0.1359188039756677</v>
+        <v>0.003126177470032057</v>
       </c>
       <c r="T6">
-        <v>0.1359188039756677</v>
+        <v>0.002120531977893338</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C7" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D7" t="s">
         <v>22</v>
@@ -844,16 +853,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>1.564190333333333</v>
+        <v>2.651738666666667</v>
       </c>
       <c r="H7">
-        <v>4.692571</v>
+        <v>7.955216</v>
       </c>
       <c r="I7">
-        <v>0.3305906291778926</v>
+        <v>0.3002776955386495</v>
       </c>
       <c r="J7">
-        <v>0.3305906291778925</v>
+        <v>0.3044638741511027</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -862,28 +871,1144 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>16.08464233333333</v>
+        <v>12.49901533333333</v>
       </c>
       <c r="N7">
-        <v>48.253927</v>
+        <v>37.497046</v>
       </c>
       <c r="O7">
-        <v>0.5888606875710045</v>
+        <v>0.4515669100864271</v>
       </c>
       <c r="P7">
-        <v>0.5888606875710045</v>
+        <v>0.4531394481677785</v>
       </c>
       <c r="Q7">
-        <v>25.15944205292411</v>
+        <v>33.14412225465956</v>
       </c>
       <c r="R7">
-        <v>226.434978476317</v>
+        <v>298.297100291936</v>
       </c>
       <c r="S7">
-        <v>0.1946718252022248</v>
+        <v>0.1355954711422608</v>
       </c>
       <c r="T7">
-        <v>0.1946718252022248</v>
+        <v>0.1379645919198546</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" t="s">
+        <v>26</v>
+      </c>
+      <c r="C8" t="s">
+        <v>27</v>
+      </c>
+      <c r="D8" t="s">
+        <v>24</v>
+      </c>
+      <c r="E8">
+        <v>3</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>2.651738666666667</v>
+      </c>
+      <c r="H8">
+        <v>7.955216</v>
+      </c>
+      <c r="I8">
+        <v>0.3002776955386495</v>
+      </c>
+      <c r="J8">
+        <v>0.3044638741511027</v>
+      </c>
+      <c r="K8">
+        <v>3</v>
+      </c>
+      <c r="L8">
+        <v>1</v>
+      </c>
+      <c r="M8">
+        <v>3.382917666666666</v>
+      </c>
+      <c r="N8">
+        <v>10.148753</v>
+      </c>
+      <c r="O8">
+        <v>0.1222187218011882</v>
+      </c>
+      <c r="P8">
+        <v>0.1226443366768434</v>
+      </c>
+      <c r="Q8">
+        <v>8.970613582849778</v>
+      </c>
+      <c r="R8">
+        <v>80.735522245648</v>
+      </c>
+      <c r="S8">
+        <v>0.03669955613414009</v>
+      </c>
+      <c r="T8">
+        <v>0.03734076988732393</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
+        <v>26</v>
+      </c>
+      <c r="C9" t="s">
+        <v>27</v>
+      </c>
+      <c r="D9" t="s">
+        <v>25</v>
+      </c>
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>2.651738666666667</v>
+      </c>
+      <c r="H9">
+        <v>7.955216</v>
+      </c>
+      <c r="I9">
+        <v>0.3002776955386495</v>
+      </c>
+      <c r="J9">
+        <v>0.3044638741511027</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>11.50911</v>
+      </c>
+      <c r="N9">
+        <v>34.52733</v>
+      </c>
+      <c r="O9">
+        <v>0.4158034134644739</v>
+      </c>
+      <c r="P9">
+        <v>0.4172514086284765</v>
+      </c>
+      <c r="Q9">
+        <v>30.51915200592</v>
+      </c>
+      <c r="R9">
+        <v>274.67236805328</v>
+      </c>
+      <c r="S9">
+        <v>0.1248564907922165</v>
+      </c>
+      <c r="T9">
+        <v>0.1270379803660308</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>26</v>
+      </c>
+      <c r="C10" t="s">
+        <v>27</v>
+      </c>
+      <c r="D10" t="s">
+        <v>20</v>
+      </c>
+      <c r="E10">
+        <v>2</v>
+      </c>
+      <c r="F10">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G10">
+        <v>0.6013073333333333</v>
+      </c>
+      <c r="H10">
+        <v>1.803922</v>
+      </c>
+      <c r="I10">
+        <v>0.06809086530038551</v>
+      </c>
+      <c r="J10">
+        <v>0.06904012169957491</v>
+      </c>
+      <c r="K10">
+        <v>1</v>
+      </c>
+      <c r="L10">
+        <v>0.5</v>
+      </c>
+      <c r="M10">
+        <v>0.288167</v>
+      </c>
+      <c r="N10">
+        <v>0.576334</v>
+      </c>
+      <c r="O10">
+        <v>0.01041095464791083</v>
+      </c>
+      <c r="P10">
+        <v>0.00696480652690157</v>
+      </c>
+      <c r="Q10">
+        <v>0.1732769303246667</v>
+      </c>
+      <c r="R10">
+        <v>1.039661581948</v>
+      </c>
+      <c r="S10">
+        <v>0.000708890910579319</v>
+      </c>
+      <c r="T10">
+        <v>0.000480851090231278</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" t="s">
+        <v>26</v>
+      </c>
+      <c r="C11" t="s">
+        <v>27</v>
+      </c>
+      <c r="D11" t="s">
+        <v>22</v>
+      </c>
+      <c r="E11">
+        <v>2</v>
+      </c>
+      <c r="F11">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G11">
+        <v>0.6013073333333333</v>
+      </c>
+      <c r="H11">
+        <v>1.803922</v>
+      </c>
+      <c r="I11">
+        <v>0.06809086530038551</v>
+      </c>
+      <c r="J11">
+        <v>0.06904012169957491</v>
+      </c>
+      <c r="K11">
+        <v>3</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>12.49901533333333</v>
+      </c>
+      <c r="N11">
+        <v>37.497046</v>
+      </c>
+      <c r="O11">
+        <v>0.4515669100864271</v>
+      </c>
+      <c r="P11">
+        <v>0.4531394481677785</v>
+      </c>
+      <c r="Q11">
+        <v>7.515749579379111</v>
+      </c>
+      <c r="R11">
+        <v>67.64174621441201</v>
+      </c>
+      <c r="S11">
+        <v>0.0307475816488062</v>
+      </c>
+      <c r="T11">
+        <v>0.03128480264838164</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>26</v>
+      </c>
+      <c r="C12" t="s">
+        <v>27</v>
+      </c>
+      <c r="D12" t="s">
+        <v>24</v>
+      </c>
+      <c r="E12">
+        <v>2</v>
+      </c>
+      <c r="F12">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G12">
+        <v>0.6013073333333333</v>
+      </c>
+      <c r="H12">
+        <v>1.803922</v>
+      </c>
+      <c r="I12">
+        <v>0.06809086530038551</v>
+      </c>
+      <c r="J12">
+        <v>0.06904012169957491</v>
+      </c>
+      <c r="K12">
+        <v>3</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>3.382917666666666</v>
+      </c>
+      <c r="N12">
+        <v>10.148753</v>
+      </c>
+      <c r="O12">
+        <v>0.1222187218011882</v>
+      </c>
+      <c r="P12">
+        <v>0.1226443366768434</v>
+      </c>
+      <c r="Q12">
+        <v>2.034173201029555</v>
+      </c>
+      <c r="R12">
+        <v>18.307558809266</v>
+      </c>
+      <c r="S12">
+        <v>0.008321978523349994</v>
+      </c>
+      <c r="T12">
+        <v>0.008467379929932909</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>26</v>
+      </c>
+      <c r="C13" t="s">
+        <v>27</v>
+      </c>
+      <c r="D13" t="s">
+        <v>25</v>
+      </c>
+      <c r="E13">
+        <v>2</v>
+      </c>
+      <c r="F13">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G13">
+        <v>0.6013073333333333</v>
+      </c>
+      <c r="H13">
+        <v>1.803922</v>
+      </c>
+      <c r="I13">
+        <v>0.06809086530038551</v>
+      </c>
+      <c r="J13">
+        <v>0.06904012169957491</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>11.50911</v>
+      </c>
+      <c r="N13">
+        <v>34.52733</v>
+      </c>
+      <c r="O13">
+        <v>0.4158034134644739</v>
+      </c>
+      <c r="P13">
+        <v>0.4172514086284765</v>
+      </c>
+      <c r="Q13">
+        <v>6.920512243139999</v>
+      </c>
+      <c r="R13">
+        <v>62.28461018826</v>
+      </c>
+      <c r="S13">
+        <v>0.02831241421764999</v>
+      </c>
+      <c r="T13">
+        <v>0.02880708803102908</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" t="s">
+        <v>26</v>
+      </c>
+      <c r="C14" t="s">
+        <v>27</v>
+      </c>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14">
+        <v>1</v>
+      </c>
+      <c r="F14">
+        <v>0.5</v>
+      </c>
+      <c r="G14">
+        <v>0.1329915</v>
+      </c>
+      <c r="H14">
+        <v>0.265983</v>
+      </c>
+      <c r="I14">
+        <v>0.01505969711428136</v>
+      </c>
+      <c r="J14">
+        <v>0.01017976314387098</v>
+      </c>
+      <c r="K14">
+        <v>1</v>
+      </c>
+      <c r="L14">
+        <v>0.5</v>
+      </c>
+      <c r="M14">
+        <v>0.288167</v>
+      </c>
+      <c r="N14">
+        <v>0.576334</v>
+      </c>
+      <c r="O14">
+        <v>0.01041095464791083</v>
+      </c>
+      <c r="P14">
+        <v>0.00696480652690157</v>
+      </c>
+      <c r="Q14">
+        <v>0.03832376158050001</v>
+      </c>
+      <c r="R14">
+        <v>0.153295046322</v>
+      </c>
+      <c r="S14">
+        <v>0.0001567858236680569</v>
+      </c>
+      <c r="T14">
+        <v>7.090008078674467E-05</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" t="s">
+        <v>26</v>
+      </c>
+      <c r="C15" t="s">
+        <v>27</v>
+      </c>
+      <c r="D15" t="s">
+        <v>22</v>
+      </c>
+      <c r="E15">
+        <v>1</v>
+      </c>
+      <c r="F15">
+        <v>0.5</v>
+      </c>
+      <c r="G15">
+        <v>0.1329915</v>
+      </c>
+      <c r="H15">
+        <v>0.265983</v>
+      </c>
+      <c r="I15">
+        <v>0.01505969711428136</v>
+      </c>
+      <c r="J15">
+        <v>0.01017976314387098</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>12.49901533333333</v>
+      </c>
+      <c r="N15">
+        <v>37.497046</v>
+      </c>
+      <c r="O15">
+        <v>0.4515669100864271</v>
+      </c>
+      <c r="P15">
+        <v>0.4531394481677785</v>
+      </c>
+      <c r="Q15">
+        <v>1.662262797703</v>
+      </c>
+      <c r="R15">
+        <v>9.973576786218002</v>
+      </c>
+      <c r="S15">
+        <v>0.006800460892733517</v>
+      </c>
+      <c r="T15">
+        <v>0.004612852253492387</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" t="s">
+        <v>26</v>
+      </c>
+      <c r="C16" t="s">
+        <v>27</v>
+      </c>
+      <c r="D16" t="s">
+        <v>24</v>
+      </c>
+      <c r="E16">
+        <v>1</v>
+      </c>
+      <c r="F16">
+        <v>0.5</v>
+      </c>
+      <c r="G16">
+        <v>0.1329915</v>
+      </c>
+      <c r="H16">
+        <v>0.265983</v>
+      </c>
+      <c r="I16">
+        <v>0.01505969711428136</v>
+      </c>
+      <c r="J16">
+        <v>0.01017976314387098</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>3.382917666666666</v>
+      </c>
+      <c r="N16">
+        <v>10.148753</v>
+      </c>
+      <c r="O16">
+        <v>0.1222187218011882</v>
+      </c>
+      <c r="P16">
+        <v>0.1226443366768434</v>
+      </c>
+      <c r="Q16">
+        <v>0.4498992948665</v>
+      </c>
+      <c r="R16">
+        <v>2.699395769199</v>
+      </c>
+      <c r="S16">
+        <v>0.00184057693202051</v>
+      </c>
+      <c r="T16">
+        <v>0.001248490298307435</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>26</v>
+      </c>
+      <c r="C17" t="s">
+        <v>27</v>
+      </c>
+      <c r="D17" t="s">
+        <v>25</v>
+      </c>
+      <c r="E17">
+        <v>1</v>
+      </c>
+      <c r="F17">
+        <v>0.5</v>
+      </c>
+      <c r="G17">
+        <v>0.1329915</v>
+      </c>
+      <c r="H17">
+        <v>0.265983</v>
+      </c>
+      <c r="I17">
+        <v>0.01505969711428136</v>
+      </c>
+      <c r="J17">
+        <v>0.01017976314387098</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>11.50911</v>
+      </c>
+      <c r="N17">
+        <v>34.52733</v>
+      </c>
+      <c r="O17">
+        <v>0.4158034134644739</v>
+      </c>
+      <c r="P17">
+        <v>0.4172514086284765</v>
+      </c>
+      <c r="Q17">
+        <v>1.530613802565</v>
+      </c>
+      <c r="R17">
+        <v>9.18368281539</v>
+      </c>
+      <c r="S17">
+        <v>0.006261873465859277</v>
+      </c>
+      <c r="T17">
+        <v>0.004247520511284416</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>24</v>
+      </c>
+      <c r="B18" t="s">
+        <v>26</v>
+      </c>
+      <c r="C18" t="s">
+        <v>27</v>
+      </c>
+      <c r="D18" t="s">
+        <v>20</v>
+      </c>
+      <c r="E18">
+        <v>3</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>4.774573</v>
+      </c>
+      <c r="H18">
+        <v>14.323719</v>
+      </c>
+      <c r="I18">
+        <v>0.5406632997599523</v>
+      </c>
+      <c r="J18">
+        <v>0.5482006998919651</v>
+      </c>
+      <c r="K18">
+        <v>1</v>
+      </c>
+      <c r="L18">
+        <v>0.5</v>
+      </c>
+      <c r="M18">
+        <v>0.288167</v>
+      </c>
+      <c r="N18">
+        <v>0.576334</v>
+      </c>
+      <c r="O18">
+        <v>0.01041095464791083</v>
+      </c>
+      <c r="P18">
+        <v>0.00696480652690157</v>
+      </c>
+      <c r="Q18">
+        <v>1.375874377691</v>
+      </c>
+      <c r="R18">
+        <v>8.255246266146001</v>
+      </c>
+      <c r="S18">
+        <v>0.005628821093590683</v>
+      </c>
+      <c r="T18">
+        <v>0.003818111812659567</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>24</v>
+      </c>
+      <c r="B19" t="s">
+        <v>26</v>
+      </c>
+      <c r="C19" t="s">
+        <v>27</v>
+      </c>
+      <c r="D19" t="s">
+        <v>22</v>
+      </c>
+      <c r="E19">
+        <v>3</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>4.774573</v>
+      </c>
+      <c r="H19">
+        <v>14.323719</v>
+      </c>
+      <c r="I19">
+        <v>0.5406632997599523</v>
+      </c>
+      <c r="J19">
+        <v>0.5482006998919651</v>
+      </c>
+      <c r="K19">
+        <v>3</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>12.49901533333333</v>
+      </c>
+      <c r="N19">
+        <v>37.497046</v>
+      </c>
+      <c r="O19">
+        <v>0.4515669100864271</v>
+      </c>
+      <c r="P19">
+        <v>0.4531394481677785</v>
+      </c>
+      <c r="Q19">
+        <v>59.67746113711934</v>
+      </c>
+      <c r="R19">
+        <v>537.0971502340741</v>
+      </c>
+      <c r="S19">
+        <v>0.2441456556697333</v>
+      </c>
+      <c r="T19">
+        <v>0.248411362634235</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>24</v>
+      </c>
+      <c r="B20" t="s">
+        <v>26</v>
+      </c>
+      <c r="C20" t="s">
+        <v>27</v>
+      </c>
+      <c r="D20" t="s">
+        <v>24</v>
+      </c>
+      <c r="E20">
+        <v>3</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>4.774573</v>
+      </c>
+      <c r="H20">
+        <v>14.323719</v>
+      </c>
+      <c r="I20">
+        <v>0.5406632997599523</v>
+      </c>
+      <c r="J20">
+        <v>0.5482006998919651</v>
+      </c>
+      <c r="K20">
+        <v>3</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>3.382917666666666</v>
+      </c>
+      <c r="N20">
+        <v>10.148753</v>
+      </c>
+      <c r="O20">
+        <v>0.1222187218011882</v>
+      </c>
+      <c r="P20">
+        <v>0.1226443366768434</v>
+      </c>
+      <c r="Q20">
+        <v>16.15198735248967</v>
+      </c>
+      <c r="R20">
+        <v>145.367886172407</v>
+      </c>
+      <c r="S20">
+        <v>0.06607917742147403</v>
+      </c>
+      <c r="T20">
+        <v>0.06723371120403138</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>24</v>
+      </c>
+      <c r="B21" t="s">
+        <v>26</v>
+      </c>
+      <c r="C21" t="s">
+        <v>27</v>
+      </c>
+      <c r="D21" t="s">
+        <v>25</v>
+      </c>
+      <c r="E21">
+        <v>3</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>4.774573</v>
+      </c>
+      <c r="H21">
+        <v>14.323719</v>
+      </c>
+      <c r="I21">
+        <v>0.5406632997599523</v>
+      </c>
+      <c r="J21">
+        <v>0.5482006998919651</v>
+      </c>
+      <c r="K21">
+        <v>3</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>11.50911</v>
+      </c>
+      <c r="N21">
+        <v>34.52733</v>
+      </c>
+      <c r="O21">
+        <v>0.4158034134644739</v>
+      </c>
+      <c r="P21">
+        <v>0.4172514086284765</v>
+      </c>
+      <c r="Q21">
+        <v>54.95108586003</v>
+      </c>
+      <c r="R21">
+        <v>494.55977274027</v>
+      </c>
+      <c r="S21">
+        <v>0.2248096455751542</v>
+      </c>
+      <c r="T21">
+        <v>0.2287375142410391</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>25</v>
+      </c>
+      <c r="B22" t="s">
+        <v>26</v>
+      </c>
+      <c r="C22" t="s">
+        <v>27</v>
+      </c>
+      <c r="D22" t="s">
+        <v>20</v>
+      </c>
+      <c r="E22">
+        <v>3</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>0.439076</v>
+      </c>
+      <c r="H22">
+        <v>1.317228</v>
+      </c>
+      <c r="I22">
+        <v>0.04972010669967782</v>
+      </c>
+      <c r="J22">
+        <v>0.05041325590911783</v>
+      </c>
+      <c r="K22">
+        <v>1</v>
+      </c>
+      <c r="L22">
+        <v>0.5</v>
+      </c>
+      <c r="M22">
+        <v>0.288167</v>
+      </c>
+      <c r="N22">
+        <v>0.576334</v>
+      </c>
+      <c r="O22">
+        <v>0.01041095464791083</v>
+      </c>
+      <c r="P22">
+        <v>0.00696480652690157</v>
+      </c>
+      <c r="Q22">
+        <v>0.126527213692</v>
+      </c>
+      <c r="R22">
+        <v>0.759163282152</v>
+      </c>
+      <c r="S22">
+        <v>0.0005176337759396334</v>
+      </c>
+      <c r="T22">
+        <v>0.000351118573798183</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>25</v>
+      </c>
+      <c r="B23" t="s">
+        <v>26</v>
+      </c>
+      <c r="C23" t="s">
+        <v>27</v>
+      </c>
+      <c r="D23" t="s">
+        <v>22</v>
+      </c>
+      <c r="E23">
+        <v>3</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>0.439076</v>
+      </c>
+      <c r="H23">
+        <v>1.317228</v>
+      </c>
+      <c r="I23">
+        <v>0.04972010669967782</v>
+      </c>
+      <c r="J23">
+        <v>0.05041325590911783</v>
+      </c>
+      <c r="K23">
+        <v>3</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>12.49901533333333</v>
+      </c>
+      <c r="N23">
+        <v>37.497046</v>
+      </c>
+      <c r="O23">
+        <v>0.4515669100864271</v>
+      </c>
+      <c r="P23">
+        <v>0.4531394481677785</v>
+      </c>
+      <c r="Q23">
+        <v>5.488017656498667</v>
+      </c>
+      <c r="R23">
+        <v>49.39215890848801</v>
+      </c>
+      <c r="S23">
+        <v>0.02245195495154097</v>
+      </c>
+      <c r="T23">
+        <v>0.02284423496299865</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>25</v>
+      </c>
+      <c r="B24" t="s">
+        <v>26</v>
+      </c>
+      <c r="C24" t="s">
+        <v>27</v>
+      </c>
+      <c r="D24" t="s">
+        <v>24</v>
+      </c>
+      <c r="E24">
+        <v>3</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>0.439076</v>
+      </c>
+      <c r="H24">
+        <v>1.317228</v>
+      </c>
+      <c r="I24">
+        <v>0.04972010669967782</v>
+      </c>
+      <c r="J24">
+        <v>0.05041325590911783</v>
+      </c>
+      <c r="K24">
+        <v>3</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="M24">
+        <v>3.382917666666666</v>
+      </c>
+      <c r="N24">
+        <v>10.148753</v>
+      </c>
+      <c r="O24">
+        <v>0.1222187218011882</v>
+      </c>
+      <c r="P24">
+        <v>0.1226443366768434</v>
+      </c>
+      <c r="Q24">
+        <v>1.485357957409333</v>
+      </c>
+      <c r="R24">
+        <v>13.368221616684</v>
+      </c>
+      <c r="S24">
+        <v>0.006076727888653316</v>
+      </c>
+      <c r="T24">
+        <v>0.006182900330693714</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>25</v>
+      </c>
+      <c r="B25" t="s">
+        <v>26</v>
+      </c>
+      <c r="C25" t="s">
+        <v>27</v>
+      </c>
+      <c r="D25" t="s">
+        <v>25</v>
+      </c>
+      <c r="E25">
+        <v>3</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>0.439076</v>
+      </c>
+      <c r="H25">
+        <v>1.317228</v>
+      </c>
+      <c r="I25">
+        <v>0.04972010669967782</v>
+      </c>
+      <c r="J25">
+        <v>0.05041325590911783</v>
+      </c>
+      <c r="K25">
+        <v>3</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>11.50911</v>
+      </c>
+      <c r="N25">
+        <v>34.52733</v>
+      </c>
+      <c r="O25">
+        <v>0.4158034134644739</v>
+      </c>
+      <c r="P25">
+        <v>0.4172514086284765</v>
+      </c>
+      <c r="Q25">
+        <v>5.05337398236</v>
+      </c>
+      <c r="R25">
+        <v>45.48036584124</v>
+      </c>
+      <c r="S25">
+        <v>0.02067379008354389</v>
+      </c>
+      <c r="T25">
+        <v>0.02103500204162728</v>
       </c>
     </row>
   </sheetData>
